--- a/agents/YUOV/YUOV-Data-Contents.xlsx
+++ b/agents/YUOV/YUOV-Data-Contents.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (OIE). Geographical distribution can therefore not be mapped directly from any available reports. </t>
+    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (WOAH). Geographical distribution can therefore not be mapped directly from any available reports. </t>
   </si>
   <si>
     <t xml:space="preserve">sub-title</t>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">There are no OIE- recommended standard tests for Yunnan.</t>
+    <t xml:space="preserve">There are no WOAH- recommended standard tests for Yunnan.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -444,7 +444,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -471,7 +471,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -498,7 +498,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/app/uploads/2021/03/oie-african-swine-fever-technical-disease-card.pdf</t>
@@ -507,7 +507,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. OIE Terrestrial Animal Health Code, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. WOAH Terrestrial Animal Health Code, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahc/current/chapitre_asf.pdf</t>
@@ -516,7 +516,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.08.01_ASF.pdf</t>

--- a/agents/YUOV/YUOV-Data-Contents.xlsx
+++ b/agents/YUOV/YUOV-Data-Contents.xlsx
@@ -84,7 +84,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref011:here}. Data fields are explained in this {ref012:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-Yunnan.html</t>
+    <t xml:space="preserve">ExperimentalInfections-Yunnan.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-Yunnan.html</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-Yunnan.html</t>

--- a/agents/YUOV/YUOV-Data-Contents.xlsx
+++ b/agents/YUOV/YUOV-Data-Contents.xlsx
@@ -180,7 +180,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-Yunnan.html</t>
+    <t xml:space="preserve">PathogenSurvival-Yunnan.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/YUOV/YUOV-Data-Contents.xlsx
+++ b/agents/YUOV/YUOV-Data-Contents.xlsx
@@ -312,7 +312,7 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews (SLR) covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. </t>
   </si>
   <si>
-    <t xml:space="preserve">No vaccines had been authorised for use in the EU by the European Medicine Agency at the time of the latest SLR.  The next update is planned for 2022.</t>
+    <t xml:space="preserve">No vaccines had been authorised for use in the EU by the European Medicine Agency at the time of the latest SLR.  The next update is planned for 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref023:here}, for pathogens which have available vaccines. Data fields are explained in this {ref024:read-me file}.</t>

--- a/agents/YUOV/YUOV-Data-Contents.xlsx
+++ b/agents/YUOV/YUOV-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\YUOV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\YUOV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363F91F0-73F5-41A1-9C05-86C207BDB97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4F5AAA-B397-4E39-A07A-25170FB6D3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3780" yWindow="5390" windowWidth="7230" windowHeight="3980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1099,13 +1099,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116:D116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>7</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>10</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>11</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>12</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>13</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>14</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>15</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>7</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>8</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>7</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>8</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>12</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>13</v>
       </c>
@@ -3068,16 +3068,16 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>8</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>9</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>10</v>
       </c>
@@ -3480,9 +3480,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>166</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>184</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>196</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>205</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>211</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>217</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>220</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>223</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>229</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>232</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>234</v>
       </c>
